--- a/Class_B_Plot_Waveform.xlsx
+++ b/Class_B_Plot_Waveform.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDAD78A-1BDA-40E6-9454-E9BF87F95A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2DB452-C1E3-41EB-A4BF-0E3374C69C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24221,8 +24232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
